--- a/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_02_beg.xlsx
+++ b/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_02_beg.xlsx
@@ -536,7 +536,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="\"Captain\""]   What the hell are you mumbling about?
+    <t xml:space="preserve">[name="'Captain'"]   What the hell are you mumbling about?
 </t>
   </si>
   <si>
